--- a/Class Demo Files/Excel Ch3/Chart Introduction.xlsx
+++ b/Class Demo Files/Excel Ch3/Chart Introduction.xlsx
@@ -5,15 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Allen\BUS140 OUT\Class Demo Files\Excel Ch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS-140\Class Demo Files\Excel Ch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="255" windowWidth="9180" windowHeight="4050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="5" r:id="rId1"/>
-    <sheet name="Apple Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Apple Sales Column" sheetId="6" r:id="rId2"/>
+    <sheet name="Sales Trend Line" sheetId="7" r:id="rId3"/>
+    <sheet name="2016 Sales Pie" sheetId="8" r:id="rId4"/>
+    <sheet name="2014 Pie" sheetId="9" r:id="rId5"/>
+    <sheet name="2015 Pie" sheetId="10" r:id="rId6"/>
+    <sheet name="Chart6" sheetId="11" r:id="rId7"/>
+    <sheet name="Apple Data" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -229,6 +235,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Change in Sales of Apples</a:t>
             </a:r>
           </a:p>
@@ -621,6 +628,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Years</a:t>
                 </a:r>
               </a:p>
@@ -714,6 +722,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Kilograms </a:t>
                 </a:r>
               </a:p>
@@ -853,6 +862,6192 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Apple Sales 2014-16</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBDC-4B40-8617-063D020C5EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBDC-4B40-8617-063D020C5EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBDC-4B40-8617-063D020C5EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="446638616"/>
+        <c:axId val="446637960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="446638616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Apple Varieties</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446637960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="446637960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Apple Weight (in kgs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446638616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B20A-4828-89FF-05635A08C774}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B20A-4828-89FF-05635A08C774}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B20A-4828-89FF-05635A08C774}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B20A-4828-89FF-05635A08C774}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484199296"/>
+        <c:axId val="451601320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484199296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451601320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451601320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6500"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484199296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="45"/>
+      <c:rotY val="150"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8BF6-45D2-8669-17696AF30793}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8BF6-45D2-8669-17696AF30793}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8BF6-45D2-8669-17696AF30793}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8BF6-45D2-8669-17696AF30793}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9AAB2D1-3F12-4709-92F2-1647ED7FBC57}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BF4CCC73-2C34-4717-BF08-D9C867973A86}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8BF6-45D2-8669-17696AF30793}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7609684-8EEB-4148-A984-92304CCEC55A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{9B68F86C-A712-4785-A806-0459CFEB42AB}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8BF6-45D2-8669-17696AF30793}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BEAA1D3B-281F-4713-B89C-EBC7FC6BE2B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{44397A57-9052-4E64-917C-375A49ABC94F}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8BF6-45D2-8669-17696AF30793}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E37E8026-E613-4D53-BBC5-0121DD4C96B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{6D17DC16-5F37-400E-A9EC-829F2FBFF38C}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8BF6-45D2-8669-17696AF30793}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Apple Data'!$D$5:$D$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6,000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3,500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3,000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2,500</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8BF6-45D2-8669-17696AF30793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d prstMaterial="plastic"/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-22EC-419D-97F6-7282C9F459D6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-22EC-419D-97F6-7282C9F459D6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-22EC-419D-97F6-7282C9F459D6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-22EC-419D-97F6-7282C9F459D6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-22EC-419D-97F6-7282C9F459D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5C0B-4E1B-90B3-A724E2790276}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5C0B-4E1B-90B3-A724E2790276}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5C0B-4E1B-90B3-A724E2790276}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5C0B-4E1B-90B3-A724E2790276}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5C0B-4E1B-90B3-A724E2790276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD75-4370-8251-5132A076B34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD75-4370-8251-5132A076B34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apple Data'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apple Data'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MacIntosh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spartan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braeburn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Delicious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apple Data'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD75-4370-8251-5132A076B34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494951648"/>
+        <c:axId val="494946400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494951648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494946400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494946400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494951648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -866,11 +7061,77 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8594148" cy="5823239"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -950,6 +7211,168 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6280042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,14 +7725,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -1436,10 +7859,22 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <f>SUM(B5:B8)</f>
+        <v>10500</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:E9" si="0">SUM(C5:C8)</f>
+        <v>15500</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>41000</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -1535,5 +7970,43 @@
     <oddFooter>&amp;LTutorial 4 - Charts
 Chart Introduction.xls</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF002060"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.499984740745262"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Apple Data'!B5:D5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Apple Data'!B6:D6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Apple Data'!B7:D7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Apple Data'!B8:D8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Apple Data'!B9:D9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>